--- a/biology/Médecine/Obinutuzumab/Obinutuzumab.xlsx
+++ b/biology/Médecine/Obinutuzumab/Obinutuzumab.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">L'obinutuzumab est un anticorps monoclonal dirigé contre le CD20 et en cours de test comme médicament anticancéreux.
 </t>
@@ -511,9 +523,11 @@
           <t>Mode d'action</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Par rapport au rituximab et au ofatumumab, deux autres anti CD20, il a une activité cytotoxique dépendante du système du complément moindre[1] et dépendante des lymphocytes B bien supérieure[2].
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Par rapport au rituximab et au ofatumumab, deux autres anti CD20, il a une activité cytotoxique dépendante du système du complément moindre et dépendante des lymphocytes B bien supérieure.
 </t>
         </is>
       </c>
@@ -542,10 +556,12 @@
           <t>Efficacité</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Dans la leucémie lymphoïde chronique, en association avec le chlorambucil, le taux de réponse et la durée de rémission s'avère supérieure qu'avec le rituximab[3]. il peut constituer une seconde ligne thérapeutique en cas de résistance au rituximab des lymphomes non hodgkiniens[4]. 
-Dans le lymphome folliculaire, il peut constituer un recours dans les formes réfractaires[5]. En première ligne, il obtient des rémissions plus longues que le rituximab, avec cependant plus d'effets indésirables[6].
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Dans la leucémie lymphoïde chronique, en association avec le chlorambucil, le taux de réponse et la durée de rémission s'avère supérieure qu'avec le rituximab. il peut constituer une seconde ligne thérapeutique en cas de résistance au rituximab des lymphomes non hodgkiniens. 
+Dans le lymphome folliculaire, il peut constituer un recours dans les formes réfractaires. En première ligne, il obtient des rémissions plus longues que le rituximab, avec cependant plus d'effets indésirables.
 </t>
         </is>
       </c>
